--- a/data/trans_camb/P25A_4_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_4_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,22</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,32</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>0,37</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>54,09</t>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,18</t>
+          <t>-0,43; 3,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,88</t>
+          <t>-1,3; 1,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,41; 66,66</t>
+          <t>-1,17; 1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,77</t>
+          <t>-0,74; 2,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,73</t>
+          <t>-1,88; 1,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,93; 78,81</t>
+          <t>-0,9; 1,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,25</t>
+          <t>-0,91; 1,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,45</t>
+          <t>-0,54; 2,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,51; 65,7</t>
+          <t>-0,81; 3,01</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 3,57</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 2,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 1,34</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 1,91</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 2,33</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 1,98</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>127,4%</t>
+          <t>103,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4299,31%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>69,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4585,49%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>50,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4305,08%</t>
+          <t>45,91%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>87,7%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>67,71%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,3%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>59,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>54,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>29,94%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 893,31</t>
+          <t>-35,63; 547,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,99; 466,87</t>
+          <t>-70,09; 339,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1667,52; 11294,11</t>
+          <t>-68,59; 299,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,6; 317,67</t>
+          <t>-34,17; 399,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,5; 296,55</t>
+          <t>-52,97; 80,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1845,64; 11741,97</t>
+          <t>-50,15; 359,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 291,9</t>
+          <t>-48,23; 311,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 196,63</t>
+          <t>-39,56; 442,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2303,23; 8197,88</t>
+          <t>-28,76; 204,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 303,36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 266,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-40,12; 186,18</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-31,39; 232,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; 183,15</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-15,99; 112,45</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>50,78</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,93</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56,54</t>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,68</t>
+          <t>-0,7; 1,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,77</t>
+          <t>-0,23; 3,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,07; 78,28</t>
+          <t>-0,21; 2,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,48</t>
+          <t>-2,65; 1,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,51</t>
+          <t>-5,09; 0,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,55; 90,06</t>
+          <t>-3,03; 2,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,76</t>
+          <t>-2,4; 3,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,32</t>
+          <t>-4,33; 1,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,46; 77,2</t>
+          <t>0,58; 6,1</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 4,83</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 1,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 2,72</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 1,5</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 2,7</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 1,86</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>61,64%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>138,45%</t>
+          <t>136,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6197,43%</t>
+          <t>142,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>-45,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>-61,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5799,97%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,06%</t>
+          <t>30,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,51%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5775,47%</t>
+          <t>252,28%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>61,54%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>70,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>43,35%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>58,8%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-6,13%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,38; 600,57</t>
+          <t>-57,16; 549,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,37; 1226,07</t>
+          <t>-38,64; 1156,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1322,95; 24404,39</t>
+          <t>-38,68; 945,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,35; 918,05</t>
+          <t>-90,25; 172,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,73; —</t>
+          <t>-100,0; 101,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1065,87; 28727,59</t>
+          <t>-95,49; 824,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 376,25</t>
+          <t>-100,0; 1401,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,96; 473,89</t>
+          <t>-100,0; 439,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2037,66; 16140,54</t>
+          <t>12,6; 975,46</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-44,61; 388,63</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-65,64; 324,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-61,97; 488,0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-66,92; 278,19</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-28,77; 231,82</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-60,8; 115,77</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-4,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,31</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 0,48</t>
+          <t>-9,29; 0,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 2,88</t>
+          <t>-8,31; 2,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-11,15; -1,32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 2,67</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-5,24; 2,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 2,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 5,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,61; 0,67</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,1; 1,83</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 0,3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 1,48</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 0,61</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-63,97%</t>
+          <t>-64,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,82%</t>
+          <t>-40,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-88,98%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-20,27%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-27,66%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-20,9%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-49,22%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-27,51%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-51,92%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-33,52%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-57,58%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 87,0</t>
+          <t>-100,0; 80,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,09; 182,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 21,27</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-87,34; 569,95</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 374,59</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 304,82</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 918,63</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-85,7; 41,85</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-76,95; 96,35</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-87,94; 34,89</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-77,39; 101,69</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-91,18; 88,85</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>49,99</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>0,29</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>62,46</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>54,48</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,94</t>
+          <t>-0,8; 1,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,66</t>
+          <t>-0,84; 1,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,51; 65,35</t>
+          <t>-1,11; 1,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,32</t>
+          <t>-0,64; 1,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,39</t>
+          <t>-2,1; 0,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,54; 76,99</t>
+          <t>-1,18; 1,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,35</t>
+          <t>-0,88; 1,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,18</t>
+          <t>-0,82; 1,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>43,01; 66,11</t>
+          <t>0,2; 3,12</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 2,98</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 1,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 1,28</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 1,11</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 2,21</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 1,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3445,77%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>-21,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4515,71%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3846,66%</t>
+          <t>82,82%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>80,42%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21,97%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>17,97%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>61,77%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 203,88</t>
+          <t>-40,36; 167,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 166,13</t>
+          <t>-43,99; 160,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1869,57; 6349,45</t>
+          <t>-49,92; 118,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 155,69</t>
+          <t>-30,78; 158,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 162,17</t>
+          <t>-57,36; 39,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2253,03; 8857,94</t>
+          <t>-49,31; 157,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 118,06</t>
+          <t>-49,64; 211,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 112,52</t>
+          <t>-44,77; 192,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2416,24; 6000,36</t>
+          <t>2,17; 227,01</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 183,76</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-26,99; 109,18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-34,38; 107,22</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-29,07; 97,92</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 154,63</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 79,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
